--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -118,7 +118,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="6">
+  <x:cellStyleXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -137,8 +137,26 @@
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="12">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -161,6 +179,30 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -465,39 +507,39 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="3" spans="1:7">
-      <x:c r="E3" s="1" t="s">
+      <x:c r="E3" s="6" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="E4" s="1" t="s">
+      <x:c r="E4" s="6" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="D5" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="0" t="s">
+      <x:c r="E5" s="8" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="F5" s="9" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="3" t="s">
+      <x:c r="G5" s="9" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="E6" s="4" t="s">
+      <x:c r="E6" s="10" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="E7" s="4" t="s">
+      <x:c r="E7" s="10" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -528,30 +570,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4" s="1" customFormat="1"/>
-    <x:row r="2" spans="1:4" s="4" customFormat="1"/>
+    <x:row r="1" spans="1:4" s="6" customFormat="1"/>
+    <x:row r="2" spans="1:4" s="10" customFormat="1"/>
     <x:row r="3" spans="1:4"/>
-    <x:row r="4" spans="1:4" s="5" customFormat="1"/>
-    <x:row r="5" spans="1:4" s="3" customFormat="1"/>
+    <x:row r="4" spans="1:4" s="11" customFormat="1"/>
+    <x:row r="5" spans="1:4" s="9" customFormat="1"/>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="C8" s="1" t="s"/>
-      <x:c r="D8" s="1" t="s"/>
+      <x:c r="B8" s="6" t="s"/>
+      <x:c r="C8" s="6" t="s"/>
+      <x:c r="D8" s="6" t="s"/>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="B9" s="4" t="s"/>
-      <x:c r="C9" s="4" t="s"/>
-      <x:c r="D9" s="4" t="s"/>
+      <x:c r="B9" s="10" t="s"/>
+      <x:c r="C9" s="10" t="s"/>
+      <x:c r="D9" s="10" t="s"/>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="B11" s="5" t="s"/>
-      <x:c r="C11" s="5" t="s"/>
-      <x:c r="D11" s="5" t="s"/>
+      <x:c r="B11" s="11" t="s"/>
+      <x:c r="C11" s="11" t="s"/>
+      <x:c r="D11" s="11" t="s"/>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
+      <x:c r="B12" s="9" t="s"/>
+      <x:c r="C12" s="9" t="s"/>
+      <x:c r="D12" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -580,30 +622,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="10" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="4" max="4" width="9.140625" style="11" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:12">
-      <x:c r="H2" s="1" t="s"/>
-      <x:c r="I2" s="4" t="s"/>
-      <x:c r="K2" s="5" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="H2" s="6" t="s"/>
+      <x:c r="I2" s="10" t="s"/>
+      <x:c r="K2" s="11" t="s"/>
+      <x:c r="L2" s="9" t="s"/>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="H3" s="1" t="s"/>
-      <x:c r="I3" s="4" t="s"/>
-      <x:c r="K3" s="5" t="s"/>
-      <x:c r="L3" s="3" t="s"/>
+      <x:c r="H3" s="6" t="s"/>
+      <x:c r="I3" s="10" t="s"/>
+      <x:c r="K3" s="11" t="s"/>
+      <x:c r="L3" s="9" t="s"/>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="H4" s="1" t="s"/>
-      <x:c r="I4" s="4" t="s"/>
-      <x:c r="K4" s="5" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
+      <x:c r="H4" s="6" t="s"/>
+      <x:c r="I4" s="10" t="s"/>
+      <x:c r="K4" s="11" t="s"/>
+      <x:c r="L4" s="9" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -118,7 +118,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="12">
+  <x:cellStyleXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -137,26 +137,8 @@
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="6">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -179,30 +161,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -507,39 +465,39 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="3" spans="1:7">
-      <x:c r="E3" s="6" t="s">
+      <x:c r="E3" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="E4" s="6" t="s">
+      <x:c r="E4" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="C5" s="7" t="s">
+      <x:c r="C5" s="2" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="7" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E5" s="8" t="s">
+      <x:c r="E5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="9" t="s">
+      <x:c r="F5" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="9" t="s">
+      <x:c r="G5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:7">
-      <x:c r="E6" s="10" t="s">
+      <x:c r="E6" s="4" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7">
-      <x:c r="E7" s="10" t="s">
+      <x:c r="E7" s="4" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
@@ -570,30 +528,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4" s="6" customFormat="1"/>
-    <x:row r="2" spans="1:4" s="10" customFormat="1"/>
+    <x:row r="1" spans="1:4" s="1" customFormat="1"/>
+    <x:row r="2" spans="1:4" s="4" customFormat="1"/>
     <x:row r="3" spans="1:4"/>
-    <x:row r="4" spans="1:4" s="11" customFormat="1"/>
-    <x:row r="5" spans="1:4" s="9" customFormat="1"/>
+    <x:row r="4" spans="1:4" s="5" customFormat="1"/>
+    <x:row r="5" spans="1:4" s="3" customFormat="1"/>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="6" t="s"/>
-      <x:c r="C8" s="6" t="s"/>
-      <x:c r="D8" s="6" t="s"/>
+      <x:c r="B8" s="1" t="s"/>
+      <x:c r="C8" s="1" t="s"/>
+      <x:c r="D8" s="1" t="s"/>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="B9" s="10" t="s"/>
-      <x:c r="C9" s="10" t="s"/>
-      <x:c r="D9" s="10" t="s"/>
+      <x:c r="B9" s="4" t="s"/>
+      <x:c r="C9" s="4" t="s"/>
+      <x:c r="D9" s="4" t="s"/>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="B11" s="11" t="s"/>
-      <x:c r="C11" s="11" t="s"/>
-      <x:c r="D11" s="11" t="s"/>
+      <x:c r="B11" s="5" t="s"/>
+      <x:c r="C11" s="5" t="s"/>
+      <x:c r="D11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="9" t="s"/>
-      <x:c r="C12" s="9" t="s"/>
-      <x:c r="D12" s="9" t="s"/>
+      <x:c r="B12" s="3" t="s"/>
+      <x:c r="C12" s="3" t="s"/>
+      <x:c r="D12" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -622,30 +580,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="6" customWidth="1"/>
-    <x:col min="2" max="2" width="9.140625" style="10" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.140625" style="11" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
+    <x:col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:12">
-      <x:c r="H2" s="6" t="s"/>
-      <x:c r="I2" s="10" t="s"/>
-      <x:c r="K2" s="11" t="s"/>
-      <x:c r="L2" s="9" t="s"/>
+      <x:c r="H2" s="1" t="s"/>
+      <x:c r="I2" s="4" t="s"/>
+      <x:c r="K2" s="5" t="s"/>
+      <x:c r="L2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="H3" s="6" t="s"/>
-      <x:c r="I3" s="10" t="s"/>
-      <x:c r="K3" s="11" t="s"/>
-      <x:c r="L3" s="9" t="s"/>
+      <x:c r="H3" s="1" t="s"/>
+      <x:c r="I3" s="4" t="s"/>
+      <x:c r="K3" s="5" t="s"/>
+      <x:c r="L3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="H4" s="6" t="s"/>
-      <x:c r="I4" s="10" t="s"/>
-      <x:c r="K4" s="11" t="s"/>
-      <x:c r="L4" s="9" t="s"/>
+      <x:c r="H4" s="1" t="s"/>
+      <x:c r="I4" s="4" t="s"/>
+      <x:c r="K4" s="5" t="s"/>
+      <x:c r="L4" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -505,14 +505,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -557,14 +550,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -609,14 +595,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -52,7 +52,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -467,7 +467,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G7"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -524,7 +524,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:D12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -569,7 +569,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:L4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -77,12 +77,6 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFFA07A"/>
-        <x:bgColor rgb="FFFFA07A"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
         <x:fgColor rgb="FFADD8E6"/>
         <x:bgColor rgb="FFADD8E6"/>
       </x:patternFill>
@@ -91,6 +85,12 @@
       <x:patternFill patternType="solid">
         <x:fgColor rgb="FFA2A2D0"/>
         <x:bgColor rgb="FFA2A2D0"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFA07A"/>
+        <x:bgColor rgb="FFFFA07A"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
@@ -472,29 +472,29 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="3" spans="1:7">
-      <x:c r="E3" s="1" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:7">
-      <x:c r="E4" s="1" t="s">
+      <x:c r="E4" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:7">
-      <x:c r="C5" s="2" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
+      <x:c r="D5" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="E5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s">
+      <x:c r="F5" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G5" s="3" t="s">
+      <x:c r="G5" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -528,15 +528,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:4" s="1" customFormat="1"/>
+    <x:row r="1" spans="1:4" s="3" customFormat="1"/>
     <x:row r="2" spans="1:4" s="4" customFormat="1"/>
     <x:row r="3" spans="1:4"/>
     <x:row r="4" spans="1:4" s="5" customFormat="1"/>
-    <x:row r="5" spans="1:4" s="3" customFormat="1"/>
+    <x:row r="5" spans="1:4" s="2" customFormat="1"/>
     <x:row r="8" spans="1:4">
-      <x:c r="B8" s="1" t="s"/>
-      <x:c r="C8" s="1" t="s"/>
-      <x:c r="D8" s="1" t="s"/>
+      <x:c r="B8" s="3" t="s"/>
+      <x:c r="C8" s="3" t="s"/>
+      <x:c r="D8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="B9" s="4" t="s"/>
@@ -549,9 +549,9 @@
       <x:c r="D11" s="5" t="s"/>
     </x:row>
     <x:row r="12" spans="1:4">
-      <x:c r="B12" s="3" t="s"/>
-      <x:c r="C12" s="3" t="s"/>
-      <x:c r="D12" s="3" t="s"/>
+      <x:c r="B12" s="2" t="s"/>
+      <x:c r="C12" s="2" t="s"/>
+      <x:c r="D12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -573,30 +573,30 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="3" customWidth="1"/>
     <x:col min="2" max="2" width="9.140625" style="4" customWidth="1"/>
     <x:col min="3" max="3" width="9.140625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.140625" style="5" customWidth="1"/>
-    <x:col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
+    <x:col min="5" max="5" width="9.140625" style="2" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:12">
-      <x:c r="H2" s="1" t="s"/>
+      <x:c r="H2" s="3" t="s"/>
       <x:c r="I2" s="4" t="s"/>
       <x:c r="K2" s="5" t="s"/>
-      <x:c r="L2" s="3" t="s"/>
+      <x:c r="L2" s="2" t="s"/>
     </x:row>
     <x:row r="3" spans="1:12">
-      <x:c r="H3" s="1" t="s"/>
+      <x:c r="H3" s="3" t="s"/>
       <x:c r="I3" s="4" t="s"/>
       <x:c r="K3" s="5" t="s"/>
-      <x:c r="L3" s="3" t="s"/>
+      <x:c r="L3" s="2" t="s"/>
     </x:row>
     <x:row r="4" spans="1:12">
-      <x:c r="H4" s="1" t="s"/>
+      <x:c r="H4" s="3" t="s"/>
       <x:c r="I4" s="4" t="s"/>
       <x:c r="K4" s="5" t="s"/>
-      <x:c r="L4" s="3" t="s"/>
+      <x:c r="L4" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/WalkingRanges.xlsx
@@ -126,47 +126,47 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
